--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-DeepSeek/CoT_deepseek_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-DeepSeek/CoT_deepseek_wikidata_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata-DeepSeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49049EDE-EC00-4AD2-873E-3DA963FDB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7C5BE-9B4D-4516-8B18-AB25BD804143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="455">
   <si>
     <t>Question</t>
   </si>
@@ -349,304 +349,904 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film ?filmLabel WHERE { ?film wdt:P57 wd:Q2001. SERVICE wikibase:label { bd:serviceParam wikibase:language "en" } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?actor WHERE { ?item wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P161 wd:Q38111 ; wdt:P31 wd:Q11424 . }</t>
-  </si>
-  <si>
-    <t>SELECT ?date WHERE { wd:Q53713 wdt:P570 ?date }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item p:P161 wd:Q34851; p:P161 wd:Q151973 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/prop/direct/P178&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P31 wd:Q482994 . ?x wdt:P175 wd:Q303 . ?x wdt:P577 ?y . ?x wdt:P264 ?uri . } ORDER BY ASC(?y) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q5280538, wd:Q806349; wdt:P1303 wd:Q119621, wd:Q8338. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; p:P161 ?actor ; p:P57 ?director . ?actor wdt:P161 wd:Q40523 . ?director wdt:P57 wd:Q315087 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?birthDate WHERE { &lt;http://www.wikidata.org/entity/Q241665&gt; wdt:P569 ?birthDate }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?item wdt:P509 ?x . } GROUP BY ?x ORDER BY DESC(COUNT(DISTINCT ?item)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?advisor WHERE { wd:Q937 wdt:P184 ?advisor }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P26 wd:Q37079 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author WHERE { wd:Q726382 wdt:P50 ?author }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wd:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency_uri WHERE { wd:Q148 wdt:P38 ?currency_uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wdt:Q692 wdt:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 ; wdt:P448 wd:Q177477 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?item WHERE { ?item p:P17 wd:Q17 ; &lt;http://www.wikidata.org/prop/p17&gt; wd:Q17 ; a wd:Q23442 . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wdref: &lt;http://www.wikidata.org/reference/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q4830453 . ?company wdt:P452 ?industry . VALUES (?industry) { (wd:Q854995) (wd:Q37038) (wd:Q1286627) } SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . ?company rdfs:label ?companyLabel . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?university WHERE { wd:Q567 wds:P69 ?university }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; p:P161 ps:P161 wd:Q485310 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q37079. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?country ?countryLabel WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?place WHERE { wd:Q9696 p:P20 ?place. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?river WHERE { wd:Q125006 wdt:P177 ?river. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wds: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri ?releaseDate WHERE { ?uri wdt:P31 wds:Q11424. ?uri wdt:P161 wds:Q103894. ?uri wdt:P577 ?releaseDate. } ORDER BY DESC(?releaseDate) LIMIT 1 OPTIONAL { SERVICE &lt;https://query.wikidata.org/sparql&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT ?item WHERE { ?item wdt:P31 wd:Q8502. ?item wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { { ?item wdt:P31 wd:Q215627 ; wdt:P19 wd:Q160544 . } UNION { ?item wdt:P31 wd:Q5 ; wdt:P19 wd:Q160544 . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child. }</t>
-  </si>
-  <si>
-    <t>SELECT ?elevation ?elevationUnit WHERE { wd:Q58226 p:P2044 ?elevationStatement. ?elevationStatement ps:P2044 ?elevation. ?elevationStatement p:P2044 ?elevation. OPTIONAL { ?elevationStatement pq:P2045 ?elevationUnit. } } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q5806 wdt:P17 ?country }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?height WHERE { wd:Q76717 wdt:P2048 ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/prop/direct/P136&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515. ?city wdt:P1082 ?population. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". ?city rdfs:label ?cityLabel. } } ORDER BY ASC(?population) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2295 ?ni }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri ?uriLabel WHERE { wd:Q91 wdt:P20 ?uri. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { { wd:Q105981852 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q26235529 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q5451 p:P17 ?country . ?country p:P36 ?capital . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q41421 wdt:P2048 ?height }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q796 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 . VALUES ?ideology { wd:Q3781399 wd:Q1377153 } ?item wdt:P1142 ?ideology }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://www.wikidata.org/entity/Q162371&gt; &lt;http://www.wikidata.org/entity/P161&gt; ?actor . ?actor &lt;http://www.wikidata.org/entity/P569&gt; ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?movement WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?movement . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 UNION ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q23572 wdt:P86 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424 . ?item wdt:P57 wd:Q56094 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album ?releaseDate WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?releaseDate . } ORDER BY ASC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wds:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q1741&gt; ; &lt;http://www.wikidata.org/entity/P20&gt; [] . VALUES ([] ) { (&lt;http://www.wikidata.org/entity/Q64&gt;) (&lt;http://www.wikidata.org/entity/Q31910788&gt;) (&lt;http://www.wikidata.org/entity/Q56036&gt;) (&lt;http://www.wikidata.org/entity/Q56037&gt;) } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q12280 ; wdt:P177 ?river . VALUES ?river { wd:Q1142326 wd:Q1471 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P31 wd:Q571 . ?book wdt:P50 ?musician . } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?item WHERE { ?item wdt:P170 wd:Q25014 ; wdt:P31 wd:Q15416 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q5280538, wd:Q806349 ; wdt:P1303 wd:Q119621, wd:Q8338 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri ?height WHERE { ?uri a ont:Q3665646 ; pr:P2048 ?height . FILTER ( ?height &gt; 2.0 ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ont: &lt;http://www.wikidata.org/ontology#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT DISTINCT ?film WHERE { ?film ont:workType wdt:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1020 wdt:P36 ?capital }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?item) AS ?count) WHERE { ?item wdt:P31 wd:Q9143 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11631 ; wdt:P27 ?country . FILTER (?country = wd:Q2184 || ?country = wd:Q159 || ?country = wd:Q15180) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?creator WHERE { wd:Q5930 wdt:P170 ?creator }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?population WHERE { wd:Q408 wdt:P36 ?capital . ?capital wdt:P1082 ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wds:P2046 ?tarea }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q37156&gt; &lt;http://www.wikidata.org/prop/direct/P1128&gt; ?number }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wds:P31 wd:Q11424 ; wds:P17 wd:Q35 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://Wikiba.se/&gt; SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country . } ORDER BY ?country</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?AlmaMater WHERE { wd:Q567 wdt:P69 ?AlmaMater }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri }</t>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film ?filmLabel WHERE { ?film wdt:P57 wd:Q2001. SERVICE wikibase:label { bd:serviceParam wikibase:language "en" } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?developer WHERE { wd:Q40984 wdt:P178 ?developer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?actor WHERE { ?item wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P161 wd:Q38111 ; wdt:P31 wd:Q11424 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?date WHERE { wd:Q53713 wdt:P570 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item p:P161 wd:Q34851; p:P161 wd:Q151973 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/prop/direct/P178&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P31 wd:Q482994 . ?x wdt:P175 wd:Q303 . ?x wdt:P577 ?y . ?x wdt:P264 ?uri . } ORDER BY ASC(?y) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q5280538, wd:Q806349; wdt:P1303 wd:Q119621, wd:Q8338. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; p:P161 ?actor ; p:P57 ?director . ?actor wdt:P161 wd:Q40523 . ?director wdt:P57 wd:Q315087 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?birthDate WHERE { &lt;http://www.wikidata.org/entity/Q241665&gt; wdt:P569 ?birthDate }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?x WHERE { ?item wdt:P509 ?x . } GROUP BY ?x ORDER BY DESC(COUNT(DISTINCT ?item)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?advisor WHERE { wd:Q937 wdt:P184 ?advisor }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P26 wd:Q37079 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?author WHERE { wd:Q726382 wdt:P50 ?author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wd:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency_uri WHERE { wd:Q148 wdt:P38 ?currency_uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wdt:Q692 wdt:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 ; wdt:P448 wd:Q177477 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?item WHERE { ?item p:P17 wd:Q17 ; &lt;http://www.wikidata.org/prop/p17&gt; wd:Q17 ; a wd:Q23442 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wdref: &lt;http://www.wikidata.org/reference/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q4830453 . ?company wdt:P452 ?industry . VALUES (?industry) { (wd:Q854995) (wd:Q37038) (wd:Q1286627) } SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . ?company rdfs:label ?companyLabel . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?university WHERE { wd:Q567 wds:P69 ?university }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; p:P161 ps:P161 wd:Q485310 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q37079. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?country ?countryLabel WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?place WHERE { wd:Q9696 p:P20 ?place. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?river WHERE { wd:Q125006 wdt:P177 ?river. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wds: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri ?releaseDate WHERE { ?uri wdt:P31 wds:Q11424. ?uri wdt:P161 wds:Q103894. ?uri wdt:P577 ?releaseDate. } ORDER BY DESC(?releaseDate) LIMIT 1 OPTIONAL { SERVICE &lt;https://query.wikidata.org/sparql&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?item WHERE { ?item wdt:P31 wd:Q8502. ?item wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { { ?item wdt:P31 wd:Q215627 ; wdt:P19 wd:Q160544 . } UNION { ?item wdt:P31 wd:Q5 ; wdt:P19 wd:Q160544 . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?elevation ?elevationUnit WHERE { wd:Q58226 p:P2044 ?elevationStatement. ?elevationStatement ps:P2044 ?elevation. ?elevationStatement p:P2044 ?elevation. OPTIONAL { ?elevationStatement pq:P2045 ?elevationUnit. } } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?country WHERE { wd:Q5806 wdt:P17 ?country }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?height WHERE { wd:Q76717 wdt:P2048 ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/prop/direct/P136&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515. ?city wdt:P1082 ?population. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". ?city rdfs:label ?cityLabel. } } ORDER BY ASC(?population) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2295 ?ni }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri ?uriLabel WHERE { wd:Q91 wdt:P20 ?uri. SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?capital WHERE { { wd:Q105981852 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q26235529 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q5451 p:P17 ?country . ?country p:P36 ?capital . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q41421 wdt:P2048 ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q796 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 . VALUES ?ideology { wd:Q3781399 wd:Q1377153 } ?item wdt:P1142 ?ideology }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://www.wikidata.org/entity/Q162371&gt; &lt;http://www.wikidata.org/entity/P161&gt; ?actor . ?actor &lt;http://www.wikidata.org/entity/P569&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?movement WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?movement . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 UNION ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q23572 wdt:P86 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424 . ?item wdt:P57 wd:Q56094 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album ?releaseDate WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?releaseDate . } ORDER BY ASC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wds:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q1741&gt; ; &lt;http://www.wikidata.org/entity/P20&gt; [] . VALUES ([] ) { (&lt;http://www.wikidata.org/entity/Q64&gt;) (&lt;http://www.wikidata.org/entity/Q31910788&gt;) (&lt;http://www.wikidata.org/entity/Q56036&gt;) (&lt;http://www.wikidata.org/entity/Q56037&gt;) } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q12280 ; wdt:P177 ?river . VALUES ?river { wd:Q1142326 wd:Q1471 } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?musician (COUNT(?book) AS ?count) WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P31 wd:Q571 . ?book wdt:P50 ?musician . } GROUP BY ?musician ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?item WHERE { ?item wdt:P170 wd:Q25014 ; wdt:P31 wd:Q15416 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q5280538, wd:Q806349 ; wdt:P1303 wd:Q119621, wd:Q8338 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri ?height WHERE { ?uri a ont:Q3665646 ; pr:P2048 ?height . FILTER ( ?height &gt; 2.0 ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ont: &lt;http://www.wikidata.org/ontology#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT DISTINCT ?film WHERE { ?film ont:workType wdt:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1020 wdt:P36 ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?item) AS ?count) WHERE { ?item wdt:P31 wd:Q9143 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11631 ; wdt:P27 ?country . FILTER (?country = wd:Q2184 || ?country = wd:Q159 || ?country = wd:Q15180) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?creator WHERE { wd:Q5930 wdt:P170 ?creator }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?population WHERE { wd:Q408 wdt:P36 ?capital . ?capital wdt:P1082 ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wds: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wds:P2046 ?tarea }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://www.wikidata.org/entity/Q37156&gt; &lt;http://www.wikidata.org/prop/direct/P1128&gt; ?number }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wds:P31 wd:Q11424 ; wds:P17 wd:Q35 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://Wikiba.se/&gt; SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country . } ORDER BY ?country</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?AlmaMater WHERE { wd:Q567 wdt:P69 ?AlmaMater }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri }</t>
   </si>
   <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
@@ -949,6 +1549,9 @@
     <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/prop/direct/P170&gt; ?uri . }</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q1263483']</t>
+  </si>
+  <si>
     <t>['Query failed']</t>
   </si>
   <si>
@@ -958,6 +1561,21 @@
     <t>['http://www.wikidata.org/entity/Q246125']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q123374100']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['1986-02-28T00:00:00Z']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
   </si>
   <si>
@@ -970,6 +1588,12 @@
     <t>['1978-04-09T00:00:00Z']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q12152']</t>
+  </si>
+  <si>
+    <t>['101']</t>
+  </si>
+  <si>
     <t>['3146', 'http://www.wikidata.org/entity/Q3506451']</t>
   </si>
   <si>
@@ -982,6 +1606,9 @@
     <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
   </si>
   <si>
+    <t>['5348554000']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q9215']</t>
   </si>
   <si>
@@ -991,12 +1618,27 @@
     <t>['http://www.wikidata.org/entity/Q39099']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q178824']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/statement/q9696-7A86E8F9-F50D-4385-B1D7-4E7A1E0672CA']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q212862']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q6919666']</t>
+  </si>
+  <si>
     <t>['9606916']</t>
   </si>
   <si>
@@ -1021,9 +1663,24 @@
     <t>['http://www.wikidata.org/entity/Q138578']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+  </si>
+  <si>
+    <t>['96995000000']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q16']</t>
+  </si>
+  <si>
     <t>['198']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
+  </si>
+  <si>
     <t>['38274618']</t>
   </si>
   <si>
@@ -1045,6 +1702,9 @@
     <t>['Adele Laurie Blue Adkins']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q193490', '1973-07-13T00:00:00Z']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q131016']</t>
   </si>
   <si>
@@ -1057,18 +1717,27 @@
     <t>['http://www.wikidata.org/entity/Q14280']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q3876']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q3808']</t>
   </si>
   <si>
+    <t>['1487']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q188492']</t>
   </si>
   <si>
     <t>['9209944']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+  </si>
+  <si>
     <t>['381488']</t>
   </si>
   <si>
@@ -1078,33 +1747,27 @@
     <t>['352600']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q159']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q2420722']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1263483']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q113485118', 'http://www.wikidata.org/entity/Q113859093', 'http://www.wikidata.org/entity/Q1195106', 'http://www.wikidata.org/entity/Q2771', 'http://www.wikidata.org/entity/Q3830942', 'http://www.wikidata.org/entity/Q403810', 'http://www.wikidata.org/entity/Q7091479']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q123374100']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
   </si>
   <si>
@@ -1126,12 +1789,6 @@
     <t>['1978']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q12152']</t>
-  </si>
-  <si>
-    <t>['101']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q102174232']</t>
   </si>
   <si>
@@ -1141,9 +1798,6 @@
     <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
   </si>
   <si>
-    <t>['5348554000']</t>
-  </si>
-  <si>
     <t>['1735-10-30T00:00:00Z']</t>
   </si>
   <si>
@@ -1156,9 +1810,6 @@
     <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q178824']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588']</t>
   </si>
   <si>
@@ -1177,9 +1828,6 @@
     <t>['http://www.wikidata.org/entity/Q3896131']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q6074']</t>
   </si>
   <si>
@@ -1201,24 +1849,12 @@
     <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
   </si>
   <si>
-    <t>['96995000000']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q4799733']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q16']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100271515', 'http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100740692', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10281798', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q1033140', 'http://www.wikidata.org/entity/Q103407630', 'http://www.wikidata.org/entity/Q103408482', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q103461996', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495385', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10541293', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q1054975', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106333', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106462957', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106708800', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107438167', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108333212', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10854390', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108783890', 'http://www.wikidata.org/entity/Q108803354', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q108927805', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q1090024', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q1095258', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109593799', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109727087', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q10985961', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q109923166', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110064747', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110192210', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110246928', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q111191757', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111551849', 'http://www.wikidata.org/entity/Q111551982', 'http://www.wikidata.org/entity/Q111552242', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111725919', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111848989', 'http://www.wikidata.org/entity/Q111850874', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111968636', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q11205278', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183440', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q112630989', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112667845', 'http://www.wikidata.org/entity/Q112667901', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112674649', 'http://www.wikidata.org/entity/Q112678738', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q112769957', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q11278649', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q112894936', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113406974', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470239', 'http://www.wikidata.org/entity/Q113470340', 'http://www.wikidata.org/entity/Q113470387', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113470522', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata</t>
   </si>
   <si>
@@ -1270,9 +1906,6 @@
     <t>['http://www.wikidata.org/entity/Q1009884', 'http://www.wikidata.org/entity/Q10335385', 'http://www.wikidata.org/entity/Q10340525', 'http://www.wikidata.org/entity/Q103929698', 'http://www.wikidata.org/entity/Q104865', 'http://www.wikidata.org/entity/Q109490108', 'http://www.wikidata.org/entity/Q109490152', 'http://www.wikidata.org/entity/Q109490367', 'http://www.wikidata.org/entity/Q109490394', 'http://www.wikidata.org/entity/Q109491455', 'http://www.wikidata.org/entity/Q109491621', 'http://www.wikidata.org/entity/Q109491693', 'http://www.wikidata.org/entity/Q109493060', 'http://www.wikidata.org/entity/Q109493064', 'http://www.wikidata.org/entity/Q1100407', 'http://www.wikidata.org/entity/Q1100745', 'http://www.wikidata.org/entity/Q11685717', 'http://www.wikidata.org/entity/Q118114238', 'http://www.wikidata.org/entity/Q118490', 'http://www.wikidata.org/entity/Q12040315', 'http://www.wikidata.org/entity/Q121567180', 'http://www.wikidata.org/entity/Q1243689', 'http://www.wikidata.org/entity/Q13519676', 'http://www.wikidata.org/entity/Q13889299', 'http://www.wikidata.org/entity/Q1406012', 'http://www.wikidata.org/entity/Q152298', 'http://www.wikidata.org/entity/Q152318', 'http://www.wikidata.org/entity/Q154269', 'http://www.wikidata.org/entity/Q157931', 'http://www.wikidata.org/entity/Q159681', 'http://www.wikidata.org/entity/Q16153519', 'http://www.wikidata.org/entity/Q16522978', 'http://www.wikidata.org/entity/Q17426654', 'http://www.wikidata.org/entity/Q17426873', 'http://www.wikidata.org/entity/Q17427763', 'http://www.wikidata.org/entity/Q17593757', 'http://www.wikidata.org/entity/Q18236847', 'http://www.wikidata.org/entity/Q18352451', 'http://www.wikidata.org/entity/Q19366412', 'http://www.wikidata.org/entity/Q202933', 'http://www.wikidata.org/entity/Q203026', 'http://www.wikidata.org/entity/Q21106378', 'http://www.wikidata.org/entity/Q21154027', 'http://www.wikidata.org/entity/Q21481122', 'http://www.wikidata.org/entity/Q21856852', 'http://www.wikidata.org/entity/Q221615', 'http://www.wikidata.org/entity/Q2474284', 'http://www.wikidata.org/entity/Q252726', 'http://www.wikidata.org/entity/Q255764', 'http://www.wikidata.org/entity/Q261731', 'http://www.wikidata.org/entity/Q26255563', 'http://www.wikidata.org/entity/Q2655329', 'http://www.wikidata.org/entity/Q266359', 'http://www.wikidata.org/entity/Q26776784', 'http://www.wikidata.org/entity/Q26837347', 'http://www.wikidata.org/entity/Q280301', 'http://www.wikidata.org/entity/Q281604', 'http://www.wikidata.org/entity/Q28195006', 'http://www.wikidata.org/entity/Q283544', 'http://www.wikidata.org/entity/Q312474', 'http://www.wikidata.org/entity/Q313399', 'http://www.wikidata.org/entity/Q313815', 'http://www.wikidata.org/entity/Q314921', 'http://www.wikidata.org/entity/Q317792', 'http://www.wikidata.org/entity/Q320068', 'http://www.wikidata.org/entity/Q3329196', 'http://www.wikidata.org/entity/Q342338', 'http://www.wikidata.org/entity/Q342953', 'http://www.wikidata.org/entity/Q345288', 'http://www.wikidata.org/entity/Q345658', 'http://www.wikidata.org/entity/Q347977', 'http://www.wikidata.org/entity/Q348205', 'http://www.wikidata.org/entity/Q3492123', 'http://www.wikidata.org/entity/Q3501233', 'http://www.wikidata.org/entity/Q352137', 'http://www.wikidata.org/entity/Q3553627', 'http://www.wikidata.org/entity/Q355433', 'http://www.wikidata.org/entity/Q358525', 'http://www.wikidata.org/entity/Q360038', 'http://www.wikidata.org/entity/Q360060', 'http://www.wikidata.org/entity/Q362180', 'http://www.wikidata.org/entity/Q362819', 'http://www.wikidata.org/entity/Q362998', 'http://www.wikidata.org/entity/Q364451', 'http://www.wikidata.org/entity/Q365317', 'http://www.wikidata.org/entity/Q375659', 'http://www.wikidata.org/entity/Q376688', 'http://www.wikidata.org/entity/Q381541', 'http://www.wikidata.org/entity/Q382150', 'http://www.wikidata.org/entity/Q382184', 'http://www.wikidata.org/entity/Q4098485', 'http://www.wikidata.org/entity/Q4131995', 'http://www.wikidata.org/entity/Q4181402', 'http://www.wikidata.org/entity/Q4196202', 'http://www.wikidata.org/entity/Q431006', 'http://www.wikidata.org/entity/Q432752', 'http://www.wikidata.org/entity/Q433046', 'http://www.wikidata.org/entity/Q434409', 'http://www.wikidata.org/entity/Q434546', 'http://www.wikidata.org/entity/Q434555', 'http://www.wikidata.org/entity/Q440178', 'http://www.wikidata.org/entity/Q44371', 'http://www.wikidata.org/entity/Q446233', 'http://www.wikidata.org/entity/Q446531', 'http://www.wikidata.org/entity/Q446720', 'http://www.wikidata.org/entity/Q447311', 'http://www.wikidata.org/entity/Q448491', 'http://www.wikidata.org/entity/Q448538', 'http://www.wikidata.org/entity/Q448872', 'http://www.wikidata.org/entity/Q449577', 'http://www.wikidata.org/entity/Q450834', 'http://www.wikidata.org/entity/Q451259', 'http://www.wikidata.org/entity/Q453764', 'http://www.wikidata.org/entity/Q455669', 'http://www.wikidata.org/entity/Q457064', 'http://www.wikidata.org/entity/Q461807', 'http://www.wikidata.org/entity/Q465461', 'http://www.wikidata.org/entity/Q465724', 'http://www.wikidata.org/entity/Q465748', 'http://www.wikidata.org/entity/Q466069', 'http://www.wikidata.org/entity/Q466075', 'http://www.wikidata.org/entity/Q466483', 'http://www.wikidata.org/entity/Q466513', 'http://www.wikidata.org/entity/Q467623', 'http://www.wikidata.org/entity/Q467732', 'http://www.wikidata.org/entity/Q468250', 'http://www.wikidata.org/entity/Q468258', 'http://www.wikidata.org/entity/Q470256', 'http://www.wikidata.org/entity/Q471486', 'http://www.wikidata.org/entity/Q4715991', 'http://www.wikidata.org/entity/Q472491', 'http://www.wikidata.org/entity/Q472497', 'http://www.wikidata.org/entity/Q487622', 'http://www.wikidata.org/entity/Q487984', 'http://www.wikidata.org/entity/Q488008', 'http://www.wikidata.org/entity/Q488043', 'http://www.wikidata.org/entity/Q4994273', 'http://www.wikidata.org/entity/Q502101', 'http://www.wikidata.org/entity/Q50379072', 'http://www.wikidata.org/entity/Q50379654', 'http://www.wikidata.org/entity/Q50379760', 'http://www.wikidata.org/entity/Q50379793', 'http://www.wikidata.org/entity/Q520334', 'http://www.wikidata.org/entity/Q520760', 'http://www.wikidata.org/entity/Q535157', 'http://www.wikidata.org/entity/Q535172', 'http://www.wikidata.org/entity/Q535234', 'http://www.wikidata.org/entity/Q535280', 'http://www.wikidata.org/entity/Q535831', 'http://www.wikidata.org/entity/Q538639', 'http://www.wikidata.org/entity/Q539358', 'http://www.wikidata.org/entity/Q555679', 'http://www.wikidata.org/entity/Q560360', 'http://www.wikidata.org/entity/Q592219', 'http://www.wikidata.org/entity/Q620632', 'http://www.wikidata.org/entity/Q641389', 'http://www.wikidata.org/entity/Q6740250', 'http://www.wikidata.org/entity/Q706809', 'http://www.wikidata.org/entity/Q708452', 'http://www.wikidata.org/entity/Q708484', 'http://www.wikidata.org/entity/Q708489', 'http://www.wikidata.org/entity/Q7086024', 'http://www.wikidata.org/entity/Q708689', 'http://www.wikidata.org/entity/Q709634', 'http://www.wikidata.org/entity/Q711010', 'http://www.wikidata.org/entity/Q722142', 'http://www.wikidata.org/entity/Q725659', 'http://www.wikidata.org/entity/Q7258156', 'http://www.wikidata.org/entity/Q727902', 'http://www.wikidata.org/entity/Q728371', 'http://www.wikidata.org/entity/Q730170', 'http://www.wikidata.org/entity/Q730220', 'http://www.wikidata.org/entity/Q7327', 'http://www.wikidata.org/entity/Q7454059', 'http://www.wikidata.org/entity/Q8070504', 'http://www.wikidata.org/entity/Q820606', 'http://www.wikidata.org/entity/Q834956', 'http://www.wikidata.org/entity/Q85859878', 'http://www.wikidata.org/entity/Q85861593', 'http://www.wikidata.org/entity/Q85867505', 'http://www.wikidata.org/entity/Q927249', 'http://www.wikidata.org/entity/Q928034', 'http://www.wikidata.org/entity/Q956160', 'http://www.wikidata.org/entity/Q9601011', 'http://www.wikidata.org/entity/Q963226', 'http://www.wikidata.org/entity/Q975217']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
-  </si>
-  <si>
     <t>['8000000']</t>
   </si>
   <si>
@@ -1289,239 +1922,64 @@
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 134,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri }",\n        "startIndex": 134,\n        "stopIndex": 141\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/ontology#&gt; SELECT DISTINCT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 169,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film ?filmLabel WHERE { ?film wdt:P57 wd:Q2001. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n        "startIndex": 467,\n        "stopIndex": 480\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film ?filmLabel WHERE { ?film wdt:P57 wd:Q2001. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 169,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film ?filmLabel WHERE { ?film wdt:P57 wd:Q2001. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n        "startIndex": 169,\n        "stopIndex": 182\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film ?filmLabel WHERE { ?film wdt:P57 wd:Q2001. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>None</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 383,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wdref: &lt;http://www.wikidata.org/reference/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q4830453 . ?company wdt:P452 ?industry . VALUES (?industry) { (wd:Q854995) (wd:Q37038) (wd:Q1286627) } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?company rdfs:label ?companyLabel . } }",\n        "startIndex": 681,\n        "stopIndex": 694\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wdref: &lt;http://www.wikidata.org/reference/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q4830453 . ?company wdt:P452 ?industry . VALUES (?industry) { (wd:Q854995) (wd:Q37038) (wd:Q1286627) } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?company rdfs:label ?companyLabel . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q485310\\": extraneous input \'wd:Q485310\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 71,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; p:P161 ps:P161 wd:Q485310 }",\n        "startIndex": 369,\n        "stopIndex": 378\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; p:P161 ps:P161 wd:Q485310 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 96,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?actor WHERE { ?item wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }",\n        "startIndex": 96,\n        "stopIndex": 104\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?actor WHERE { ?item wdt:P57 wd:Q16297 ; wdt:P161 ?actor . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 207,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?country ?countryLabel WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n        "startIndex": 505,\n        "stopIndex": 518\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?country ?countryLabel WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"OPTIONAL\\": no viable alternative at input \'LIMIT1OPTIONAL\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 257,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wds: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri ?releaseDate WHERE { ?uri wdt:P31 wds:Q11424. ?uri wdt:P161 wds:Q103894. ?uri wdt:P577 ?releaseDate. } ORDER BY DESC(?releaseDate) LIMIT 1 OPTIONAL { SERVICE &lt;https://query.wikidata.org/sparql&gt; }",\n        "startIndex": 555,\n        "stopIndex": 562\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wds: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri ?releaseDate WHERE { ?uri wdt:P31 wds:Q11424. ?uri wdt:P161 wds:Q103894. ?uri wdt:P577 ?releaseDate. } ORDER BY DESC(?releaseDate) LIMIT 1 OPTIONAL { SERVICE &lt;https://query.wikidata.org/sparql&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P161 wd:Q38111 ; wdt:P31 wd:Q11424 . }",\n        "startIndex": 49,\n        "stopIndex": 56\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P161 wd:Q38111 ; wdt:P31 wd:Q11424 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 209,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515. ?city wdt:P1082 ?population. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". ?city rdfs:label ?cityLabel. } } ORDER BY ASC(?population) LIMIT 1",\n        "startIndex": 507,\n        "stopIndex": 520\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515. ?city wdt:P1082 ?population. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". ?city rdfs:label ?cityLabel. } } ORDER BY ASC(?population) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 21,\n        "query": "SELECT ?date WHERE { wd:Q53713 wdt:P570 ?date }",\n        "startIndex": 21,\n        "stopIndex": 29\n    },\n    "query": "SELECT ?date WHERE { wd:Q53713 wdt:P570 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 172,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri ?uriLabel WHERE { wd:Q91 wdt:P20 ?uri. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 470,\n        "stopIndex": 483\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri ?uriLabel WHERE { wd:Q91 wdt:P20 ?uri. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix p was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item p:P161 wd:Q34851; p:P161 wd:Q151973 }",\n        "startIndex": 36,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item p:P161 wd:Q34851; p:P161 wd:Q151973 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": missing \'}\' at \'UNION\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 77,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 UNION ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 } }",\n        "startIndex": 375,\n        "stopIndex": 379\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 UNION ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; p:P161 ?actor ; p:P57 ?director . ?actor wdt:P161 wd:Q40523 . ?director wdt:P57 wd:Q315087 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; p:P161 ?actor ; p:P57 ?director . ?actor wdt:P161 wd:Q40523 . ?director wdt:P57 wd:Q315087 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"[]\\": extraneous input \'[]\' expecting {\')\', VAR1, VAR2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 162,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q1741&gt; ; &lt;http://www.wikidata.org/entity/P20&gt; [] . VALUES ([] ) { (&lt;http://www.wikidata.org/entity/Q64&gt;) (&lt;http://www.wikidata.org/entity/Q31910788&gt;) (&lt;http://www.wikidata.org/entity/Q56036&gt;) (&lt;http://www.wikidata.org/entity/Q56037&gt;) } }",\n        "startIndex": 460,\n        "stopIndex": 461\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q1741&gt; ; &lt;http://www.wikidata.org/entity/P20&gt; [] . VALUES ([] ) { (&lt;http://www.wikidata.org/entity/Q64&gt;) (&lt;http://www.wikidata.org/entity/Q31910788&gt;) (&lt;http://www.wikidata.org/entity/Q56036&gt;) (&lt;http://www.wikidata.org/entity/Q56037&gt;) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?x WHERE { ?item wdt:P509 ?x . } GROUP BY ?x ORDER BY DESC(COUNT(DISTINCT ?item)) LIMIT 1",\n        "startIndex": 33,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?item wdt:P509 ?x . } GROUP BY ?x ORDER BY DESC(COUNT(DISTINCT ?item)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix ont was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 44,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri ?height WHERE { ?uri a ont:Q3665646 ; pr:P2048 ?height . FILTER ( ?height &gt; 2.0 ) }",\n        "startIndex": 342,\n        "stopIndex": 353\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri ?height WHERE { ?uri a ont:Q3665646 ; pr:P2048 ?height . FILTER ( ?height &gt; 2.0 ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 86,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }",\n        "startIndex": 86,\n        "stopIndex": 94\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 ; wdt:P448 wd:Q177477 . }",\n        "startIndex": 79,\n        "stopIndex": 85\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 ; wdt:P448 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 20,\n        "query": "SELECT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }",\n        "startIndex": 20,\n        "stopIndex": 29\n    },\n    "query": "SELECT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 261,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wdref: &lt;http://www.wikidata.org/reference/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q4830453 . ?company wdt:P452 ?industry . VALUES (?industry) { (wd:Q854995) (wd:Q37038) (wd:Q1286627) } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?company rdfs:label ?companyLabel . } }",\n        "startIndex": 261,\n        "stopIndex": 267\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; PREFIX wdref: &lt;http://www.wikidata.org/reference/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q4830453 . ?company wdt:P452 ?industry . VALUES (?industry) { (wd:Q854995) (wd:Q37038) (wd:Q1286627) } SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . ?company rdfs:label ?companyLabel . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q485310\\": extraneous input \'wd:Q485310\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; p:P161 ps:P161 wd:Q485310 }",\n        "startIndex": 71,\n        "stopIndex": 80\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q15416 ; p:P161 ps:P161 wd:Q485310 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q37079. }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11424. ?item wdt:P161 wd:Q37079. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 207,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?country ?countryLabel WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n        "startIndex": 207,\n        "stopIndex": 220\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?country ?countryLabel WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT DISTINCT ?place WHERE { wd:Q9696 p:P20 ?place. }",\n        "startIndex": 31,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?place WHERE { wd:Q9696 p:P20 ?place. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"OPTIONAL\\": no viable alternative at input \'LIMIT1OPTIONAL\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 257,\n        "query": "PREFIX wds: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri ?releaseDate WHERE { ?uri wdt:P31 wds:Q11424. ?uri wdt:P161 wds:Q103894. ?uri wdt:P577 ?releaseDate. } ORDER BY DESC(?releaseDate) LIMIT 1 OPTIONAL { SERVICE &lt;https://query.wikidata.org/sparql&gt; }",\n        "startIndex": 257,\n        "stopIndex": 264\n    },\n    "query": "PREFIX wds: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri ?releaseDate WHERE { ?uri wdt:P31 wds:Q11424. ?uri wdt:P161 wds:Q103894. ?uri wdt:P577 ?releaseDate. } ORDER BY DESC(?releaseDate) LIMIT 1 OPTIONAL { SERVICE &lt;https://query.wikidata.org/sparql&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 27,\n        "query": "SELECT ?item WHERE { ?item wdt:P31 wd:Q8502. ?item wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 27,\n        "stopIndex": 33\n    },\n    "query": "SELECT ?item WHERE { ?item wdt:P31 wd:Q8502. ?item wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT ?elevation ?elevationUnit WHERE { wd:Q58226 p:P2044 ?elevationStatement. ?elevationStatement ps:P2044 ?elevation. ?elevationStatement p:P2044 ?elevation. OPTIONAL { ?elevationStatement pq:P2045 ?elevationUnit. } } LIMIT 1",\n        "startIndex": 41,\n        "stopIndex": 49\n    },\n    "query": "SELECT ?elevation ?elevationUnit WHERE { wd:Q58226 p:P2044 ?elevationStatement. ?elevationStatement ps:P2044 ?elevation. ?elevationStatement p:P2044 ?elevation. OPTIONAL { ?elevationStatement pq:P2045 ?elevationUnit. } } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 209,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515. ?city wdt:P1082 ?population. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". ?city rdfs:label ?cityLabel. } } ORDER BY ASC(?population) LIMIT 1",\n        "startIndex": 209,\n        "stopIndex": 222\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?city ?cityLabel ?population WHERE { ?city wdt:P31 wd:Q515. ?city wdt:P1082 ?population. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". ?city rdfs:label ?cityLabel. } } ORDER BY ASC(?population) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 28,\n        "query": "SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2295 ?ni }",\n        "startIndex": 28,\n        "stopIndex": 34\n    },\n    "query": "SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2295 ?ni }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 143,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri ?uriLabel WHERE { wd:Q91 wdt:P20 ?uri. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 143,\n        "stopIndex": 148\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri ?uriLabel WHERE { wd:Q91 wdt:P20 ?uri. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 35,\n        "query": "SELECT DISTINCT ?capital WHERE { { wd:Q105981852 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q26235529 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q5451 p:P17 ?country . ?country p:P36 ?capital . } }",\n        "startIndex": 35,\n        "stopIndex": 47\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { { wd:Q105981852 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q26235529 p:P17 ?country . ?country p:P36 ?capital . } UNION { wd:Q5451 p:P17 ?country . ?country p:P36 ?capital . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 84,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country }",\n        "startIndex": 84,\n        "stopIndex": 94\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 }",\n        "startIndex": 42,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": missing \'}\' at \'UNION\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 77,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 UNION ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 } }",\n        "startIndex": 77,\n        "stopIndex": 81\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 UNION ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 110,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album ?releaseDate WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?releaseDate . } ORDER BY ASC(?releaseDate) LIMIT 1",\n        "startIndex": 110,\n        "stopIndex": 119\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album ?releaseDate WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?releaseDate . } ORDER BY ASC(?releaseDate) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"[]\\": extraneous input \'[]\' expecting {\')\', VAR1, VAR2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 162,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q1741&gt; ; &lt;http://www.wikidata.org/entity/P20&gt; [] . VALUES ([] ) { (&lt;http://www.wikidata.org/entity/Q64&gt;) (&lt;http://www.wikidata.org/entity/Q31910788&gt;) (&lt;http://www.wikidata.org/entity/Q56036&gt;) (&lt;http://www.wikidata.org/entity/Q56037&gt;) } }",\n        "startIndex": 162,\n        "stopIndex": 163\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q1741&gt; ; &lt;http://www.wikidata.org/entity/P20&gt; [] . VALUES ([] ) { (&lt;http://www.wikidata.org/entity/Q64&gt;) (&lt;http://www.wikidata.org/entity/Q31910788&gt;) (&lt;http://www.wikidata.org/entity/Q56036&gt;) (&lt;http://www.wikidata.org/entity/Q56037&gt;) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 27,\n        "query": "SELECT ?item WHERE { ?item wdt:P170 wd:Q25014 ; wdt:P31 wd:Q15416 }",\n        "startIndex": 27,\n        "stopIndex": 34\n    },\n    "query": "SELECT ?item WHERE { ?item wdt:P170 wd:Q25014 ; wdt:P31 wd:Q15416 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q5280538, wd:Q806349 ; wdt:P1303 wd:Q119621, wd:Q8338 }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q5280538, wd:Q806349 ; wdt:P1303 wd:Q119621, wd:Q8338 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix ont was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 44,\n        "query": "SELECT DISTINCT ?uri ?height WHERE { ?uri a ont:Q3665646 ; pr:P2048 ?height . FILTER ( ?height &gt; 2.0 ) }",\n        "startIndex": 44,\n        "stopIndex": 55\n    },\n    "query": "SELECT DISTINCT ?uri ?height WHERE { ?uri a ont:Q3665646 ; pr:P2048 ?height . FILTER ( ?height &gt; 2.0 ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 218,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ont: &lt;http://www.wikidata.org/ontology#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT DISTINCT ?film WHERE { ?film ont:workType wdt:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . }",\n        "startIndex": 218,\n        "stopIndex": 226\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX ont: &lt;http://www.wikidata.org/ontology#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT DISTINCT ?film WHERE { ?film ont:workType wdt:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 243,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1020 wdt:P36 ?capital }",\n        "startIndex": 243,\n        "stopIndex": 250\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1020 wdt:P36 ?capital }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 55,\n        "query": "SELECT (COUNT(DISTINCT ?item) AS ?count) WHERE { ?item wdt:P31 wd:Q9143 }",\n        "startIndex": 55,\n        "stopIndex": 61\n    },\n    "query": "SELECT (COUNT(DISTINCT ?item) AS ?count) WHERE { ?item wdt:P31 wd:Q9143 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11631 ; wdt:P27 ?country . FILTER (?country = wd:Q2184 || ?country = wd:Q159 || ?country = wd:Q15180) }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q11631 ; wdt:P27 ?country . FILTER (?country = wd:Q2184 || ?country = wd:Q159 || ?country = wd:Q15180) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 77,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }",\n        "startIndex": 77,\n        "stopIndex": 84\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wds was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wds:P31 wd:Q11424 ; wds:P17 wd:Q35 }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wds:P31 wd:Q11424 ; wds:P17 wd:Q35 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 141,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://Wikiba.se/&gt; SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country . } ORDER BY ?country",\n        "startIndex": 141,\n        "stopIndex": 153\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://Wikiba.se/&gt; SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country . } ORDER BY ?country",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wds was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 36,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wds:P31 wd:Q11424 ; wds:P17 wd:Q35 }",\n        "startIndex": 334,\n        "stopIndex": 340\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wds:P31 wd:Q11424 ; wds:P17 wd:Q35 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>Query Bad Formed</t>
@@ -1530,19 +1988,28 @@
     <t>Wrong Property</t>
   </si>
   <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
     <t>Structural Error</t>
   </si>
   <si>
     <t>Wrong Entity</t>
   </si>
   <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Property treated as Entity</t>
+  </si>
+  <si>
     <t>Entity treated as Property</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Property treated as Entity</t>
   </si>
 </sst>
 </file>
@@ -1910,15 +2377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1943,8 +2408,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1958,19 +2432,19 @@
         <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1981,22 +2455,25 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2007,22 +2484,25 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2033,13 +2513,13 @@
         <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2048,7 +2528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2059,22 +2539,22 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2085,22 +2565,28 @@
         <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="F7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="I7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2111,22 +2597,22 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2137,22 +2623,22 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2163,22 +2649,22 @@
         <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2189,22 +2675,22 @@
         <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2215,13 +2701,13 @@
         <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2230,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2241,22 +2727,22 @@
         <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2267,22 +2753,28 @@
         <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="F14" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I14" t="s">
+        <v>449</v>
+      </c>
+      <c r="J14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2293,13 +2785,13 @@
         <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2308,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2319,22 +2811,22 @@
         <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F16" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2345,22 +2837,22 @@
         <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="F17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2371,22 +2863,22 @@
         <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E18" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2397,22 +2889,22 @@
         <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E19" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2423,22 +2915,22 @@
         <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
         <v>433</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2449,22 +2941,22 @@
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2475,13 +2967,13 @@
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2490,7 +2982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2501,22 +2993,28 @@
         <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E23" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="I23" t="s">
+        <v>448</v>
+      </c>
+      <c r="J23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2527,22 +3025,22 @@
         <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E24" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2553,22 +3051,22 @@
         <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="E25" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="F25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2579,13 +3077,13 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F26" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2594,7 +3092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2605,22 +3103,22 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E27" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2631,13 +3129,13 @@
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E28" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F28" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2646,7 +3144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2657,13 +3155,13 @@
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F29" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2672,7 +3170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2683,22 +3181,22 @@
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2709,22 +3207,22 @@
         <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E31" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="F31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2735,22 +3233,25 @@
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="F32" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="I32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2761,22 +3262,22 @@
         <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2787,22 +3288,28 @@
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E34" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I34" t="s">
+        <v>448</v>
+      </c>
+      <c r="J34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2813,22 +3320,28 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E35" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F35" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="I35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2839,22 +3352,25 @@
         <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F36" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2865,22 +3381,28 @@
         <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E37" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="I37" t="s">
+        <v>446</v>
+      </c>
+      <c r="J37" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2891,22 +3413,28 @@
         <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E38" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I38" t="s">
+        <v>448</v>
+      </c>
+      <c r="J38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2917,22 +3445,22 @@
         <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E39" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F39" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2943,13 +3471,13 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="E40" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F40" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2958,7 +3486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2969,22 +3497,22 @@
         <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="E41" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="F41" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2995,22 +3523,25 @@
         <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E42" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="F42" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3021,22 +3552,28 @@
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E43" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="F43" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I43" t="s">
+        <v>449</v>
+      </c>
+      <c r="J43" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3047,13 +3584,13 @@
         <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E44" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F44" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3062,7 +3599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3073,22 +3610,28 @@
         <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F45" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="I45" t="s">
+        <v>449</v>
+      </c>
+      <c r="J45" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3099,13 +3642,13 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F46" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3114,7 +3657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3125,22 +3668,25 @@
         <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F47" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I47" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3151,13 +3697,13 @@
         <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E48" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F48" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3166,7 +3712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3177,13 +3723,13 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E49" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F49" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3192,7 +3738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3203,13 +3749,13 @@
         <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E50" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3218,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3229,13 +3775,13 @@
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E51" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3244,7 +3790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3255,13 +3801,13 @@
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E52" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3270,7 +3816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3281,22 +3827,25 @@
         <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E53" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="F53" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3307,22 +3856,25 @@
         <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E54" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3333,22 +3885,25 @@
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3359,22 +3914,22 @@
         <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3385,22 +3940,25 @@
         <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E57" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3411,22 +3969,25 @@
         <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E58" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3437,22 +3998,22 @@
         <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3463,13 +4024,13 @@
         <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="E60" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3478,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3489,22 +4050,22 @@
         <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3515,22 +4076,22 @@
         <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="E62" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3541,13 +4102,13 @@
         <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E63" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F63" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3556,7 +4117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3567,22 +4128,25 @@
         <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="E64" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I64" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3593,13 +4157,13 @@
         <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="E65" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3608,7 +4172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3619,22 +4183,22 @@
         <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E66" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3645,22 +4209,22 @@
         <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E67" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F67" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3671,22 +4235,28 @@
         <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F68" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3697,13 +4267,13 @@
         <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="E69" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F69" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3712,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3723,13 +4293,13 @@
         <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="F70" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3738,7 +4308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3749,22 +4319,25 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="E71" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F71" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3775,13 +4348,13 @@
         <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="F72" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3790,7 +4363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3801,22 +4374,22 @@
         <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="E73" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="F73" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3827,13 +4400,13 @@
         <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E74" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F74" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3842,7 +4415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3853,22 +4426,28 @@
         <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F75" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I75" t="s">
+        <v>449</v>
+      </c>
+      <c r="J75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3879,13 +4458,13 @@
         <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F76" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -3894,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3905,22 +4484,22 @@
         <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E77" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F77" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3931,22 +4510,25 @@
         <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="I78" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3957,22 +4539,25 @@
         <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E79" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I79" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3983,13 +4568,13 @@
         <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E80" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F80" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3998,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4009,22 +4594,25 @@
         <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E81" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F81" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I81" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4035,22 +4623,28 @@
         <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F82" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I82" t="s">
+        <v>446</v>
+      </c>
+      <c r="J82" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4061,22 +4655,28 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F83" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="I83" t="s">
+        <v>448</v>
+      </c>
+      <c r="J83" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4087,22 +4687,25 @@
         <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="E84" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F84" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I84" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4113,22 +4716,22 @@
         <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="E85" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F85" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4139,13 +4742,13 @@
         <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="F86" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4154,7 +4757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4165,22 +4768,25 @@
         <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="I87" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4191,22 +4797,22 @@
         <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E88" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4217,13 +4823,13 @@
         <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F89" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4232,7 +4838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4243,13 +4849,13 @@
         <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="E90" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F90" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4258,7 +4864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4269,22 +4875,22 @@
         <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="F91" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4295,13 +4901,13 @@
         <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="E92" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="F92" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4310,7 +4916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4321,13 +4927,13 @@
         <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E93" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="F93" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4336,7 +4942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4347,13 +4953,13 @@
         <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F94" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4362,7 +4968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4373,22 +4979,22 @@
         <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F95" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4399,22 +5005,25 @@
         <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="E96" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="F96" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I96" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4425,22 +5034,28 @@
         <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E97" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="F97" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="I97" t="s">
+        <v>449</v>
+      </c>
+      <c r="J97" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4451,22 +5066,25 @@
         <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="E98" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F98" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I98" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4477,22 +5095,25 @@
         <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E99" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F99" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="I99" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4503,22 +5124,28 @@
         <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E100" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="F100" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="I100" t="s">
+        <v>449</v>
+      </c>
+      <c r="J100" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4529,13 +5156,13 @@
         <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F101" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -4545,7 +5172,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>